--- a/php/excel/2026-02-13진료비통계.xlsx
+++ b/php/excel/2026-02-13진료비통계.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="192">
   <si>
     <t>총진료비</t>
   </si>
@@ -118,37 +118,193 @@
     <t>2026-02-13</t>
   </si>
   <si>
+    <t>700421-01</t>
+  </si>
+  <si>
+    <t>최원선</t>
+  </si>
+  <si>
+    <t>건강보험(직장)</t>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>박송희</t>
+  </si>
+  <si>
+    <t>18 : 11</t>
+  </si>
+  <si>
+    <t>#17,15,14,44,46,47 GI 충전 1면(보험)</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>전단지,광고</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>완료-임플</t>
+  </si>
+  <si>
+    <t>961022-02</t>
+  </si>
+  <si>
+    <t>박소희</t>
+  </si>
+  <si>
+    <t>조승범</t>
+  </si>
+  <si>
+    <t>신민경</t>
+  </si>
+  <si>
+    <t>17 : 53</t>
+  </si>
+  <si>
+    <t>#47 크라운 임시접착(비보험)</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>추가-치주</t>
+  </si>
+  <si>
+    <t>960916-01</t>
+  </si>
+  <si>
+    <t>이요셉</t>
+  </si>
+  <si>
+    <t>이상민,조승범</t>
+  </si>
+  <si>
+    <t>조승범,이상민</t>
+  </si>
+  <si>
+    <t>주아연</t>
+  </si>
+  <si>
+    <t>17 : 22</t>
+  </si>
+  <si>
+    <t>이수연</t>
+  </si>
+  <si>
+    <t>전악 파노라마(보험), #17~14,24~27,37~34,44~47 교익1매, 교익촬영, #27 간단 보철물제거(보험), #27 레진(구치부)-비보험, 전악 부분치석제거(보험), ..</t>
+  </si>
+  <si>
+    <t>2023-01-07</t>
+  </si>
+  <si>
+    <t>환자소개</t>
+  </si>
+  <si>
+    <t>800222-01</t>
+  </si>
+  <si>
+    <t>김석민</t>
+  </si>
+  <si>
+    <t>16 : 55</t>
+  </si>
+  <si>
+    <t>#27 크라운 임시접착(비보험), #16,33,47 GI 즉일충전 2면(보험)</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>가까워서</t>
+  </si>
+  <si>
+    <t>630502-01</t>
+  </si>
+  <si>
+    <t>엄분숙</t>
+  </si>
+  <si>
+    <t>의료급여</t>
+  </si>
+  <si>
+    <t>15 : 22</t>
+  </si>
+  <si>
+    <t>#47 크라운 임시접착(비보험), #24~27,37~34 치주소파술(보험), #13~23,33~43 치근활택술(보험), #15,14,24,25,34,44,45 GI 즉일충전 1면(..</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>371121-01</t>
+  </si>
+  <si>
+    <t>함숙여</t>
+  </si>
+  <si>
+    <t>건강보험(지역)</t>
+  </si>
+  <si>
+    <t>15 : 12</t>
+  </si>
+  <si>
+    <t>상악 ③금속상완전틀니 악간관계채득/청구(보험), 하악 ③부분틀니 금속구조물시적/청구(보험)</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>120107-01</t>
+  </si>
+  <si>
+    <t>곽하영</t>
+  </si>
+  <si>
+    <t>15 : 11</t>
+  </si>
+  <si>
+    <t>전악 고정식 유지장치, 가철식 유지장치, 전악 Debonding, #38,48 TMJ자극요법-단순, #38,48 TMJ자극요법-복합, #38,48 TMJ자극요법-전기</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>직원지인</t>
+  </si>
+  <si>
     <t>550417-01</t>
   </si>
   <si>
     <t>황세연</t>
   </si>
   <si>
-    <t>건강보험(직장)</t>
-  </si>
-  <si>
     <t>14 : 36</t>
   </si>
   <si>
+    <t>#37~35 복잡 보철물제거(보험), #36,35 크라운 임시치아 접착+제작, #17~11,41~47 치주소파술(보험), #27 GI 즉일충전 3면(보험)</t>
+  </si>
+  <si>
     <t>2026-01-23</t>
   </si>
   <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>620826-01</t>
   </si>
   <si>
     <t>이광수</t>
   </si>
   <si>
-    <t>이상민</t>
-  </si>
-  <si>
     <t>14 : 24</t>
   </si>
   <si>
-    <t>#14,13,23,24 S/O(보험)</t>
+    <t>#14,13,23,24 S/O(보험), 상악 틀니조정, #14,13,23,24 S/O(비보험), 하악 치근활택술(보험)</t>
   </si>
   <si>
     <t>2026-01-31</t>
@@ -160,16 +316,10 @@
     <t>엄춘식</t>
   </si>
   <si>
-    <t>건강보험(지역)</t>
-  </si>
-  <si>
     <t>14 : 07</t>
   </si>
   <si>
-    <t>이수연</t>
-  </si>
-  <si>
-    <t>전악 파노라마(보험), 전악 부분치석제거(보험)</t>
+    <t>전악 파노라마(보험), 전악 부분치석제거(보험), #14~12,24,25,34~32,42~45 GI 즉일충전 1면(보험)</t>
   </si>
   <si>
     <t>2024-01-04</t>
@@ -184,12 +334,12 @@
     <t>조서윤</t>
   </si>
   <si>
-    <t>박송희</t>
-  </si>
-  <si>
     <t>14 : 03</t>
   </si>
   <si>
+    <t>#17~11,41~47 치주소파술(보험), #15,25,26,36,43~45 GI 즉일충전 1면(보험), #17,16 GI 즉일충전 3면(보험)</t>
+  </si>
+  <si>
     <t>2026-01-22</t>
   </si>
   <si>
@@ -199,37 +349,25 @@
     <t>김진수</t>
   </si>
   <si>
-    <t>조승범</t>
-  </si>
-  <si>
-    <t>주아연</t>
-  </si>
-  <si>
     <t>14 : 01</t>
   </si>
   <si>
-    <t>#17,16 크라운 영구접착(비보험)</t>
+    <t>#17,16 크라운 영구접착(비보험), #13~23,33~43 치주치료후처치, 2차 치석제거(보험), #26,27 GI 즉일충전 2면(보험), #15,22,33,47 GI 즉일충전..</t>
   </si>
   <si>
     <t>2025-11-18</t>
   </si>
   <si>
-    <t>환자소개</t>
-  </si>
-  <si>
     <t>010912-02</t>
   </si>
   <si>
     <t>정혜안</t>
   </si>
   <si>
-    <t>신민경</t>
-  </si>
-  <si>
     <t>13 : 57</t>
   </si>
   <si>
-    <t>#22 발수+근관확대(보험), #22 근관확대+성형(보험)</t>
+    <t>#22 발수+근관확대(보험), #22 근관확대+성형(보험), #17~14,44~47 치주소파술(보험), #24~27,37~34 치근활택술(보험), #24~27,37~35 GI 즉일..</t>
   </si>
   <si>
     <t>2026-02-04</t>
@@ -244,7 +382,7 @@
     <t>11 : 51</t>
   </si>
   <si>
-    <t>#45 레진(치경부)-비보험</t>
+    <t>#45 레진(치경부)-비보험, #21~27,37~31 치주치료후처치, 2차 치석제거(보험), #22 GI 즉일충전 2면(보험), #36 GI 즉일충전 1면(보험), #17 GI 즉..</t>
   </si>
   <si>
     <t>2023-06-26</t>
@@ -259,6 +397,9 @@
     <t>11 : 09</t>
   </si>
   <si>
+    <t>#21~27,37~31 치주소파술(보험)</t>
+  </si>
+  <si>
     <t>490727-01</t>
   </si>
   <si>
@@ -268,7 +409,7 @@
     <t>10 : 56</t>
   </si>
   <si>
-    <t>#41 임플란트 인상채득(비보험)</t>
+    <t>#41 임플란트 인상채득(비보험), #13~23,33~43 치주치료후처치, 2차 치석제거(보험)</t>
   </si>
   <si>
     <t>2025-12-12</t>
@@ -283,15 +424,12 @@
     <t>10 : 48</t>
   </si>
   <si>
-    <t>#45 근관확대+성형(보험), #45 크라운 임시치아 접착(비보험)</t>
+    <t>#45 근관확대+성형(보험), #45 크라운 임시치아 접착(비보험), #24~27,37~34 치주소파술(보험), #14 GI 즉일충전 2면(보험), #13~23,33~43 치근활택..</t>
   </si>
   <si>
     <t>2025-08-14</t>
   </si>
   <si>
-    <t>가까워서</t>
-  </si>
-  <si>
     <t>670601-01</t>
   </si>
   <si>
@@ -304,9 +442,6 @@
     <t>2026-02-03</t>
   </si>
   <si>
-    <t>JS</t>
-  </si>
-  <si>
     <t>630413-01</t>
   </si>
   <si>
@@ -328,7 +463,7 @@
     <t>10 : 17</t>
   </si>
   <si>
-    <t>2026-01-03</t>
+    <t>#13,11,22,23 임플란트 수술후 체크(비보험), #24~27,37~34 치주소파술(보험), #33~43 치근활택술(보험), #44 GI 즉일충전 3면(보험)</t>
   </si>
   <si>
     <t>540706-01</t>
@@ -340,6 +475,9 @@
     <t>10 : 12</t>
   </si>
   <si>
+    <t>#46 임플란트 수술후 체크(비보험), #24~27,37~34 치근활택술(보험), #16,36 GI 즉일충전 2면(보험)</t>
+  </si>
+  <si>
     <t>2026-01-07</t>
   </si>
   <si>
@@ -352,6 +490,9 @@
     <t>10 : 10</t>
   </si>
   <si>
+    <t>#21~23,26,36~31 치주소파술(보험), #14,11,23 GI 즉일충전 1면(보험)</t>
+  </si>
+  <si>
     <t>2025-12-26</t>
   </si>
   <si>
@@ -361,13 +502,10 @@
     <t>김호영</t>
   </si>
   <si>
-    <t>의료급여</t>
-  </si>
-  <si>
     <t>09 : 56</t>
   </si>
   <si>
-    <t>#34,44 임플란트 인상채득(비보험)</t>
+    <t>#34,44 임플란트 인상채득(비보험), #13~24 GI 즉일충전 1면(보험), #36,45,46 GI 즉일충전 1면(보험)</t>
   </si>
   <si>
     <t>940531-01</t>
@@ -394,7 +532,7 @@
     <t>09 : 53</t>
   </si>
   <si>
-    <t>#13~23,33~43 치주소파술(보험), #24~27,37~34 치주치료후처치, 2차 치석제거(보험)</t>
+    <t>#13~23,33~43 치주소파술(보험), #24~27,37~34 치주치료후처치, 2차 치석제거(보험), #15,25,35,45 GI 즉일충전 1면(보험), #26,27,36 GI..</t>
   </si>
   <si>
     <t>2026-01-17</t>
@@ -412,7 +550,7 @@
     <t>09 : 52</t>
   </si>
   <si>
-    <t>#37 임플란트 수술후 체크(비보험)</t>
+    <t>#37 임플란트 수술후 체크(비보험), #46 GI 즉일충전 2면(보험), #35,45 GI 충전 1면(보험)</t>
   </si>
   <si>
     <t>2025-12-16</t>
@@ -424,13 +562,10 @@
     <t>김종석</t>
   </si>
   <si>
-    <t>이상민,조승범</t>
-  </si>
-  <si>
     <t>09 : 35</t>
   </si>
   <si>
-    <t>#16,45 난발치(보험), #16,14,11,45 1OP/2OP Fixture+Healing(비보험)</t>
+    <t>#16,45 난발치(보험), #16,14,11,45 1OP/2OP Fixture+Healing(비보험), #14,11 치조골성형술(보험), #24,25,34 GI 즉일충전 2면(보..</t>
   </si>
   <si>
     <t>710113-01</t>
@@ -442,7 +577,7 @@
     <t>13 : 56</t>
   </si>
   <si>
-    <t>#46 인레이 보철물 접착(비보험)</t>
+    <t>#46 인레이 보철물 접착(비보험), #17~11,41~47 치주소파술(보험), #47 GI 즉일충전 2면(보험)</t>
   </si>
   <si>
     <t>2021-04-07</t>
@@ -703,8 +838,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG22" totalsRowShown="0">
-  <autoFilter ref="A1:AG22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG29" totalsRowShown="0">
+  <autoFilter ref="A1:AG29"/>
   <tableColumns count="33">
     <tableColumn id="1" name="순번" dataDxfId="32"/>
     <tableColumn id="2" name="진료일" dataDxfId="31"/>
@@ -1029,41 +1164,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="24" width="9.140625" style="2" customWidth="1"/>
+    <col min="25" max="34" width="9.140625" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1184,17 +1295,23 @@
       <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>110670</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>77470</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>33200</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -1224,16 +1341,25 @@
         <v>0</v>
       </c>
       <c r="W2" s="2">
-        <v>0</v>
+        <v>33200</v>
       </c>
       <c r="X2" s="2">
-        <v>151400</v>
+        <v>790100</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1244,28 +1370,31 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2">
-        <v>13280</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>9380</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1295,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2">
-        <v>81400</v>
+        <v>-308600</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1318,37 +1447,40 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2">
-        <v>91120</v>
+        <v>428890</v>
       </c>
       <c r="L4" s="2">
-        <v>63820</v>
+        <v>244290</v>
       </c>
       <c r="M4" s="2">
-        <v>27300</v>
+        <v>104600</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1357,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>27300</v>
+        <v>94100</v>
       </c>
       <c r="R4" s="2">
-        <v>27300</v>
+        <v>94100</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
@@ -1375,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <v>0</v>
+        <v>90500</v>
       </c>
       <c r="X4" s="2">
-        <v>0</v>
+        <v>90500</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1398,28 +1530,31 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>93810</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>65710</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>28100</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1449,16 +1584,19 @@
         <v>0</v>
       </c>
       <c r="W5" s="2">
-        <v>0</v>
+        <v>28100</v>
       </c>
       <c r="X5" s="2">
-        <v>97100</v>
+        <v>300600</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1469,31 +1607,31 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>340410</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>338910</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1523,19 +1661,22 @@
         <v>0</v>
       </c>
       <c r="W6" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="X6" s="2">
-        <v>169300</v>
+        <v>3000</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1546,37 +1687,31 @@
         <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2">
-        <v>63150</v>
+        <v>829230</v>
       </c>
       <c r="L7" s="2">
-        <v>44250</v>
+        <v>580530</v>
       </c>
       <c r="M7" s="2">
-        <v>18900</v>
+        <v>248700</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1588,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1606,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>0</v>
+        <v>248700</v>
       </c>
       <c r="X7" s="2">
-        <v>76000</v>
+        <v>-309900</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1629,31 +1764,31 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>30260</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>21260</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1683,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="W8" s="2">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="X8" s="2">
-        <v>674300</v>
+        <v>568600</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1706,31 +1841,40 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>866380</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>116480</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>49900</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -1739,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>712800</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>712800</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
@@ -1757,16 +1901,22 @@
         <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="X9" s="2">
-        <v>80300</v>
+        <v>188500</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1777,34 +1927,40 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>866230</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>46430</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -1813,37 +1969,37 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>803900</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>803900</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>803900</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="X10" s="2">
-        <v>209800</v>
+        <v>93400</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1854,37 +2010,37 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2">
-        <v>35120</v>
+        <v>382590</v>
       </c>
       <c r="L11" s="2">
-        <v>24620</v>
+        <v>267890</v>
       </c>
       <c r="M11" s="2">
-        <v>10500</v>
+        <v>114700</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1896,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>10500</v>
+        <v>27300</v>
       </c>
       <c r="R11" s="2">
-        <v>10500</v>
+        <v>27300</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -1914,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>87400</v>
       </c>
       <c r="X11" s="2">
-        <v>283100</v>
+        <v>87400</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1937,28 +2093,31 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>331400</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>232000</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>99400</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -1988,16 +2147,19 @@
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>99400</v>
       </c>
       <c r="X12" s="2">
-        <v>58800</v>
+        <v>196500</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -2008,25 +2170,31 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>165350</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>115750</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>49600</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2056,16 +2224,19 @@
         <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>0</v>
+        <v>49600</v>
       </c>
       <c r="X13" s="2">
-        <v>99200</v>
+        <v>218900</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2076,28 +2247,37 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>332790</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>232990</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>99800</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2109,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="R14" s="2">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -2127,16 +2307,19 @@
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>0</v>
+        <v>80900</v>
       </c>
       <c r="X14" s="2">
-        <v>157100</v>
+        <v>156900</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2147,28 +2330,31 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>94380</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>66080</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -2198,16 +2384,19 @@
         <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="X15" s="2">
-        <v>184500</v>
+        <v>702600</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2218,28 +2407,31 @@
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>102080</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>71480</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>30600</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -2269,16 +2461,19 @@
         <v>0</v>
       </c>
       <c r="W16" s="2">
-        <v>0</v>
+        <v>30600</v>
       </c>
       <c r="X16" s="2">
-        <v>149800</v>
+        <v>110900</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2289,31 +2484,31 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>12940</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>11440</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -2343,19 +2538,19 @@
         <v>0</v>
       </c>
       <c r="W17" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="X17" s="2">
-        <v>-897000</v>
+        <v>211300</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2366,31 +2561,37 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>162360</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>113660</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>48700</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -2402,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="R18" s="2">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -2420,22 +2621,19 @@
         <v>0</v>
       </c>
       <c r="W18" s="2">
-        <v>0</v>
+        <v>38200</v>
       </c>
       <c r="X18" s="2">
-        <v>7336200</v>
+        <v>321300</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2446,37 +2644,28 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K19" s="2">
-        <v>70350</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>49250</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -2488,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
@@ -2509,16 +2698,13 @@
         <v>0</v>
       </c>
       <c r="X19" s="2">
-        <v>172000</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>126</v>
+        <v>63500</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2529,22 +2715,16 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -2586,16 +2766,13 @@
         <v>0</v>
       </c>
       <c r="X20" s="2">
-        <v>80000</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>132</v>
+        <v>99200</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2606,40 +2783,34 @@
         <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="K21" s="2">
-        <v>1782150</v>
+        <v>123130</v>
       </c>
       <c r="L21" s="2">
-        <v>57550</v>
+        <v>86230</v>
       </c>
       <c r="M21" s="2">
-        <v>24600</v>
+        <v>36900</v>
       </c>
       <c r="N21" s="2">
-        <v>1700000</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -2648,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1724600</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>1724600</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -2666,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>0</v>
+        <v>36900</v>
       </c>
       <c r="X21" s="2">
-        <v>81800</v>
+        <v>194000</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2689,79 +2860,633 @@
         <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="2">
+        <v>101560</v>
+      </c>
+      <c r="L22" s="2">
+        <v>71160</v>
+      </c>
+      <c r="M22" s="2">
+        <v>30400</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>30400</v>
+      </c>
+      <c r="X22" s="2">
+        <v>214900</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="2">
+        <v>161560</v>
+      </c>
+      <c r="L23" s="2">
+        <v>113160</v>
+      </c>
+      <c r="M23" s="2">
+        <v>48400</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>48400</v>
+      </c>
+      <c r="X23" s="2">
+        <v>198200</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="2">
+        <v>253730</v>
+      </c>
+      <c r="L24" s="2">
+        <v>252730</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="X24" s="2">
+        <v>-896000</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>7336200</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="2">
+        <v>256740</v>
+      </c>
+      <c r="L26" s="2">
+        <v>179740</v>
+      </c>
+      <c r="M26" s="2">
+        <v>77000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>21100</v>
+      </c>
+      <c r="R26" s="2">
+        <v>21100</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>55900</v>
+      </c>
+      <c r="X26" s="2">
+        <v>227900</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="2">
+        <v>70750</v>
+      </c>
+      <c r="L27" s="2">
+        <v>49550</v>
+      </c>
+      <c r="M27" s="2">
+        <v>21200</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>21200</v>
+      </c>
+      <c r="X27" s="2">
+        <v>101200</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1960610</v>
+      </c>
+      <c r="L28" s="2">
+        <v>182510</v>
+      </c>
+      <c r="M28" s="2">
+        <v>78100</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1724600</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1724600</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>53500</v>
+      </c>
+      <c r="X28" s="2">
+        <v>135300</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
-        <v>312500</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>146</v>
+      <c r="AC28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="2">
+        <v>129630</v>
+      </c>
+      <c r="L29" s="2">
+        <v>90830</v>
+      </c>
+      <c r="M29" s="2">
+        <v>38800</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>38800</v>
+      </c>
+      <c r="X29" s="2">
+        <v>351300</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
